--- a/Transformed_Dataset/T_SI_2002.xlsx
+++ b/Transformed_Dataset/T_SI_2002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\ISSA Project\Transformed_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\Sikkim-Rainfall-Prediction\Transformed_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6790A-81DD-4C83-9137-4FF62841A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4688A8A-0FEB-4192-B364-0D62215FB944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C596DE5E-CF28-4A58-917F-68009DACD5F9}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
-    <t>FID</t>
-  </si>
-  <si>
     <t>Day_1</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>Loc_10</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1534,43 +1534,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>367</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>368</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>369</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>370</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>371</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>373</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>374</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>375</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>376</v>
-      </c>
-      <c r="M1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1578,7 +1578,7 @@
         <v>37257</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>37258</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>37259</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>37260</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>37261</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>37262</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>37263</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>37264</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>37265</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>37266</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>37267</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>37268</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>37269</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>37270</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>37271</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>37272</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2250,7 +2250,7 @@
         <v>37273</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2292,7 +2292,7 @@
         <v>37274</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>37275</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>37276</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>37277</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -2460,7 +2460,7 @@
         <v>37278</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>37279</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>37280</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>37281</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2628,7 +2628,7 @@
         <v>37282</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2670,7 +2670,7 @@
         <v>37283</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>37284</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2754,7 +2754,7 @@
         <v>37285</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2796,7 +2796,7 @@
         <v>37286</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>37287</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>37288</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>37289</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2964,7 +2964,7 @@
         <v>37290</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>37291</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37292</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>37293</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>37294</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>37295</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>37296</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>37297</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>37298</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>37299</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>37300</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>37301</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>37302</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>37303</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>37304</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>37305</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>37306</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>37307</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>37308</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>37309</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>37310</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>37311</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>37312</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>37313</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>37314</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>37315</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4056,7 +4056,7 @@
         <v>37316</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4098,7 +4098,7 @@
         <v>37317</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>37318</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>37319</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4224,7 +4224,7 @@
         <v>37320</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>37321</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4308,7 +4308,7 @@
         <v>37322</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -4350,7 +4350,7 @@
         <v>37323</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>37324</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>37325</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>37326</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4518,7 +4518,7 @@
         <v>37327</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>37328</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>37329</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>37330</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>37331</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>37332</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>37333</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>12</v>
@@ -4812,7 +4812,7 @@
         <v>37334</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>37335</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>37336</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>37337</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>35</v>
@@ -4980,7 +4980,7 @@
         <v>37338</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -5022,7 +5022,7 @@
         <v>37339</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -5064,7 +5064,7 @@
         <v>37340</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>21</v>
@@ -5106,7 +5106,7 @@
         <v>37341</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5148,7 +5148,7 @@
         <v>37342</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -5190,7 +5190,7 @@
         <v>37343</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5232,7 +5232,7 @@
         <v>37344</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -5274,7 +5274,7 @@
         <v>37345</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>17</v>
@@ -5316,7 +5316,7 @@
         <v>37346</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -5358,7 +5358,7 @@
         <v>37347</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -5400,7 +5400,7 @@
         <v>37348</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5442,7 +5442,7 @@
         <v>37349</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -5484,7 +5484,7 @@
         <v>37350</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -5526,7 +5526,7 @@
         <v>37351</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>37352</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>37353</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -5652,7 +5652,7 @@
         <v>37354</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -5694,7 +5694,7 @@
         <v>37355</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>8</v>
@@ -5736,7 +5736,7 @@
         <v>37356</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -5778,7 +5778,7 @@
         <v>37357</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>9</v>
@@ -5820,7 +5820,7 @@
         <v>37358</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>34</v>
@@ -5862,7 +5862,7 @@
         <v>37359</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>37360</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>37361</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>37362</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -6030,7 +6030,7 @@
         <v>37363</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>37364</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -6114,7 +6114,7 @@
         <v>37365</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -6156,7 +6156,7 @@
         <v>37366</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -6198,7 +6198,7 @@
         <v>37367</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -6240,7 +6240,7 @@
         <v>37368</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -6282,7 +6282,7 @@
         <v>37369</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>37370</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -6366,7 +6366,7 @@
         <v>37371</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -6408,7 +6408,7 @@
         <v>37372</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>15</v>
@@ -6450,7 +6450,7 @@
         <v>37373</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -6492,7 +6492,7 @@
         <v>37374</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>37375</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -6576,7 +6576,7 @@
         <v>37376</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>10</v>
@@ -6618,7 +6618,7 @@
         <v>37377</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>37378</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -6702,7 +6702,7 @@
         <v>37379</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -6744,7 +6744,7 @@
         <v>37380</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>37381</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>37382</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>41</v>
@@ -6870,7 +6870,7 @@
         <v>37383</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -6912,7 +6912,7 @@
         <v>37384</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>37385</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>37386</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -7038,7 +7038,7 @@
         <v>37387</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -7080,7 +7080,7 @@
         <v>37388</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -7122,7 +7122,7 @@
         <v>37389</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>37390</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>37391</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -7248,7 +7248,7 @@
         <v>37392</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -7290,7 +7290,7 @@
         <v>37393</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>33</v>
@@ -7332,7 +7332,7 @@
         <v>37394</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -7374,7 +7374,7 @@
         <v>37395</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>37396</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141">
         <v>6</v>
@@ -7458,7 +7458,7 @@
         <v>37397</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -7500,7 +7500,7 @@
         <v>37398</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -7542,7 +7542,7 @@
         <v>37399</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -7584,7 +7584,7 @@
         <v>37400</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>37401</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>37402</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -7710,7 +7710,7 @@
         <v>37403</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148">
         <v>36</v>
@@ -7752,7 +7752,7 @@
         <v>37404</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -7794,7 +7794,7 @@
         <v>37405</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -7836,7 +7836,7 @@
         <v>37406</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151">
         <v>7</v>
@@ -7878,7 +7878,7 @@
         <v>37407</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -7920,7 +7920,7 @@
         <v>37408</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7962,7 +7962,7 @@
         <v>37409</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154">
         <v>12</v>
@@ -8004,7 +8004,7 @@
         <v>37410</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -8046,7 +8046,7 @@
         <v>37411</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156">
         <v>12</v>
@@ -8088,7 +8088,7 @@
         <v>37412</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -8130,7 +8130,7 @@
         <v>37413</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158">
         <v>30</v>
@@ -8172,7 +8172,7 @@
         <v>37414</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -8214,7 +8214,7 @@
         <v>37415</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -8256,7 +8256,7 @@
         <v>37416</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>37417</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -8340,7 +8340,7 @@
         <v>37418</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>16</v>
@@ -8382,7 +8382,7 @@
         <v>37419</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -8424,7 +8424,7 @@
         <v>37420</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>23</v>
@@ -8466,7 +8466,7 @@
         <v>37421</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -8508,7 +8508,7 @@
         <v>37422</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167">
         <v>10</v>
@@ -8550,7 +8550,7 @@
         <v>37423</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         <v>37424</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -8634,7 +8634,7 @@
         <v>37425</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -8676,7 +8676,7 @@
         <v>37426</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>37427</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>37428</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -8802,7 +8802,7 @@
         <v>37429</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>37430</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -8886,7 +8886,7 @@
         <v>37431</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -8928,7 +8928,7 @@
         <v>37432</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -8970,7 +8970,7 @@
         <v>37433</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -9012,7 +9012,7 @@
         <v>37434</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -9054,7 +9054,7 @@
         <v>37435</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180">
         <v>6</v>
@@ -9096,7 +9096,7 @@
         <v>37436</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181">
         <v>19</v>
@@ -9138,7 +9138,7 @@
         <v>37437</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>37</v>
@@ -9180,7 +9180,7 @@
         <v>37438</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183">
         <v>92</v>
@@ -9222,7 +9222,7 @@
         <v>37439</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -9264,7 +9264,7 @@
         <v>37440</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185">
         <v>15</v>
@@ -9306,7 +9306,7 @@
         <v>37441</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186">
         <v>20</v>
@@ -9348,7 +9348,7 @@
         <v>37442</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187">
         <v>28</v>
@@ -9390,7 +9390,7 @@
         <v>37443</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -9432,7 +9432,7 @@
         <v>37444</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -9474,7 +9474,7 @@
         <v>37445</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190">
         <v>15</v>
@@ -9516,7 +9516,7 @@
         <v>37446</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191">
         <v>8</v>
@@ -9558,7 +9558,7 @@
         <v>37447</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192">
         <v>30</v>
@@ -9600,7 +9600,7 @@
         <v>37448</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193">
         <v>8</v>
@@ -9642,7 +9642,7 @@
         <v>37449</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>12</v>
@@ -9684,7 +9684,7 @@
         <v>37450</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -9726,7 +9726,7 @@
         <v>37451</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196">
         <v>18</v>
@@ -9768,7 +9768,7 @@
         <v>37452</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197">
         <v>22</v>
@@ -9810,7 +9810,7 @@
         <v>37453</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>37454</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -9894,7 +9894,7 @@
         <v>37455</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200">
         <v>16</v>
@@ -9936,7 +9936,7 @@
         <v>37456</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201">
         <v>6</v>
@@ -9978,7 +9978,7 @@
         <v>37457</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202">
         <v>13</v>
@@ -10020,7 +10020,7 @@
         <v>37458</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203">
         <v>24</v>
@@ -10062,7 +10062,7 @@
         <v>37459</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204">
         <v>125</v>
@@ -10104,7 +10104,7 @@
         <v>37460</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205">
         <v>5</v>
@@ -10146,7 +10146,7 @@
         <v>37461</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206">
         <v>16</v>
@@ -10188,7 +10188,7 @@
         <v>37462</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207">
         <v>13</v>
@@ -10230,7 +10230,7 @@
         <v>37463</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208">
         <v>9</v>
@@ -10272,7 +10272,7 @@
         <v>37464</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209">
         <v>66</v>
@@ -10314,7 +10314,7 @@
         <v>37465</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210">
         <v>36</v>
@@ -10356,7 +10356,7 @@
         <v>37466</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211">
         <v>10</v>
@@ -10398,7 +10398,7 @@
         <v>37467</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -10440,7 +10440,7 @@
         <v>37468</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -10482,7 +10482,7 @@
         <v>37469</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214">
         <v>9</v>
@@ -10524,7 +10524,7 @@
         <v>37470</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215">
         <v>10</v>
@@ -10566,7 +10566,7 @@
         <v>37471</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216">
         <v>31</v>
@@ -10608,7 +10608,7 @@
         <v>37472</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -10650,7 +10650,7 @@
         <v>37473</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -10692,7 +10692,7 @@
         <v>37474</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219">
         <v>10</v>
@@ -10734,7 +10734,7 @@
         <v>37475</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220">
         <v>6</v>
@@ -10776,7 +10776,7 @@
         <v>37476</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221">
         <v>39</v>
@@ -10818,7 +10818,7 @@
         <v>37477</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -10860,7 +10860,7 @@
         <v>37478</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223">
         <v>19</v>
@@ -10902,7 +10902,7 @@
         <v>37479</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224">
         <v>13</v>
@@ -10944,7 +10944,7 @@
         <v>37480</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225">
         <v>16</v>
@@ -10986,7 +10986,7 @@
         <v>37481</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226">
         <v>16</v>
@@ -11028,7 +11028,7 @@
         <v>37482</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227">
         <v>11</v>
@@ -11070,7 +11070,7 @@
         <v>37483</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228">
         <v>19</v>
@@ -11112,7 +11112,7 @@
         <v>37484</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229">
         <v>10</v>
@@ -11154,7 +11154,7 @@
         <v>37485</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230">
         <v>23</v>
@@ -11196,7 +11196,7 @@
         <v>37486</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231">
         <v>15</v>
@@ -11238,7 +11238,7 @@
         <v>37487</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -11280,7 +11280,7 @@
         <v>37488</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233">
         <v>46</v>
@@ -11322,7 +11322,7 @@
         <v>37489</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234">
         <v>37</v>
@@ -11364,7 +11364,7 @@
         <v>37490</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235">
         <v>27</v>
@@ -11406,7 +11406,7 @@
         <v>37491</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -11448,7 +11448,7 @@
         <v>37492</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237">
         <v>10</v>
@@ -11490,7 +11490,7 @@
         <v>37493</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -11532,7 +11532,7 @@
         <v>37494</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -11574,7 +11574,7 @@
         <v>37495</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -11616,7 +11616,7 @@
         <v>37496</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -11658,7 +11658,7 @@
         <v>37497</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -11700,7 +11700,7 @@
         <v>37498</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>37499</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244">
         <v>7</v>
@@ -11784,7 +11784,7 @@
         <v>37500</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>37501</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246">
         <v>3</v>
@@ -11868,7 +11868,7 @@
         <v>37502</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>37503</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -11952,7 +11952,7 @@
         <v>37504</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249">
         <v>6</v>
@@ -11994,7 +11994,7 @@
         <v>37505</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -12036,7 +12036,7 @@
         <v>37506</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -12078,7 +12078,7 @@
         <v>37507</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -12120,7 +12120,7 @@
         <v>37508</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -12162,7 +12162,7 @@
         <v>37509</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -12204,7 +12204,7 @@
         <v>37510</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255">
         <v>16</v>
@@ -12246,7 +12246,7 @@
         <v>37511</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -12288,7 +12288,7 @@
         <v>37512</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257">
         <v>3</v>
@@ -12330,7 +12330,7 @@
         <v>37513</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258">
         <v>34</v>
@@ -12372,7 +12372,7 @@
         <v>37514</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259">
         <v>67</v>
@@ -12414,7 +12414,7 @@
         <v>37515</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260">
         <v>20</v>
@@ -12456,7 +12456,7 @@
         <v>37516</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261">
         <v>6</v>
@@ -12498,7 +12498,7 @@
         <v>37517</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262">
         <v>13</v>
@@ -12540,7 +12540,7 @@
         <v>37518</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -12582,7 +12582,7 @@
         <v>37519</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -12624,7 +12624,7 @@
         <v>37520</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -12666,7 +12666,7 @@
         <v>37521</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -12708,7 +12708,7 @@
         <v>37522</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C267">
         <v>8</v>
@@ -12750,7 +12750,7 @@
         <v>37523</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -12792,7 +12792,7 @@
         <v>37524</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269">
         <v>10</v>
@@ -12834,7 +12834,7 @@
         <v>37525</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270">
         <v>22</v>
@@ -12876,7 +12876,7 @@
         <v>37526</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -12918,7 +12918,7 @@
         <v>37527</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>37528</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>37529</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274">
         <v>7</v>
@@ -13044,7 +13044,7 @@
         <v>37530</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -13086,7 +13086,7 @@
         <v>37531</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -13128,7 +13128,7 @@
         <v>37532</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -13170,7 +13170,7 @@
         <v>37533</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -13212,7 +13212,7 @@
         <v>37534</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>37535</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         <v>37536</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -13338,7 +13338,7 @@
         <v>37537</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282">
         <v>4</v>
@@ -13380,7 +13380,7 @@
         <v>37538</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283">
         <v>14</v>
@@ -13422,7 +13422,7 @@
         <v>37539</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -13464,7 +13464,7 @@
         <v>37540</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>37541</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286">
         <v>2</v>
@@ -13548,7 +13548,7 @@
         <v>37542</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287">
         <v>6</v>
@@ -13590,7 +13590,7 @@
         <v>37543</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>37544</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>37545</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>37546</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>37547</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292">
         <v>12</v>
@@ -13800,7 +13800,7 @@
         <v>37548</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293">
         <v>9</v>
@@ -13842,7 +13842,7 @@
         <v>37549</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -13884,7 +13884,7 @@
         <v>37550</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -13926,7 +13926,7 @@
         <v>37551</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -13968,7 +13968,7 @@
         <v>37552</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -14010,7 +14010,7 @@
         <v>37553</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C298">
         <v>13</v>
@@ -14052,7 +14052,7 @@
         <v>37554</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -14094,7 +14094,7 @@
         <v>37555</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -14136,7 +14136,7 @@
         <v>37556</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -14178,7 +14178,7 @@
         <v>37557</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -14220,7 +14220,7 @@
         <v>37558</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -14262,7 +14262,7 @@
         <v>37559</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>37560</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         <v>37561</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -14388,7 +14388,7 @@
         <v>37562</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -14430,7 +14430,7 @@
         <v>37563</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -14472,7 +14472,7 @@
         <v>37564</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -14514,7 +14514,7 @@
         <v>37565</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>37566</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -14598,7 +14598,7 @@
         <v>37567</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>37568</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -14682,7 +14682,7 @@
         <v>37569</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -14724,7 +14724,7 @@
         <v>37570</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -14766,7 +14766,7 @@
         <v>37571</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -14808,7 +14808,7 @@
         <v>37572</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -14850,7 +14850,7 @@
         <v>37573</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -14892,7 +14892,7 @@
         <v>37574</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -14934,7 +14934,7 @@
         <v>37575</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>37576</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -15018,7 +15018,7 @@
         <v>37577</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -15060,7 +15060,7 @@
         <v>37578</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -15102,7 +15102,7 @@
         <v>37579</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -15144,7 +15144,7 @@
         <v>37580</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -15186,7 +15186,7 @@
         <v>37581</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -15228,7 +15228,7 @@
         <v>37582</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -15270,7 +15270,7 @@
         <v>37583</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -15312,7 +15312,7 @@
         <v>37584</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -15354,7 +15354,7 @@
         <v>37585</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -15396,7 +15396,7 @@
         <v>37586</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -15438,7 +15438,7 @@
         <v>37587</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -15480,7 +15480,7 @@
         <v>37588</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>37589</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -15564,7 +15564,7 @@
         <v>37590</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>37591</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -15648,7 +15648,7 @@
         <v>37592</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -15690,7 +15690,7 @@
         <v>37593</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -15732,7 +15732,7 @@
         <v>37594</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -15774,7 +15774,7 @@
         <v>37595</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -15816,7 +15816,7 @@
         <v>37596</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>37597</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -15900,7 +15900,7 @@
         <v>37598</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -15942,7 +15942,7 @@
         <v>37599</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>37600</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -16026,7 +16026,7 @@
         <v>37601</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -16068,7 +16068,7 @@
         <v>37602</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>37603</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>37604</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>37605</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -16236,7 +16236,7 @@
         <v>37606</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -16278,7 +16278,7 @@
         <v>37607</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>37608</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -16362,7 +16362,7 @@
         <v>37609</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -16404,7 +16404,7 @@
         <v>37610</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -16446,7 +16446,7 @@
         <v>37611</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>37612</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -16530,7 +16530,7 @@
         <v>37613</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -16572,7 +16572,7 @@
         <v>37614</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -16614,7 +16614,7 @@
         <v>37615</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -16656,7 +16656,7 @@
         <v>37616</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C361">
         <v>2</v>
@@ -16698,7 +16698,7 @@
         <v>37617</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -16740,7 +16740,7 @@
         <v>37618</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C363">
         <v>4</v>
@@ -16782,7 +16782,7 @@
         <v>37619</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -16824,7 +16824,7 @@
         <v>37620</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -16866,7 +16866,7 @@
         <v>37621</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C366">
         <v>0</v>
